--- a/data/trans_dic/P28$otro_2012-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28$otro_2012-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,91; 15,18</t>
+          <t>10,68; 15,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 11,73</t>
+          <t>8,44; 11,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 12,66</t>
+          <t>9,97; 12,69</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,31</t>
+          <t>8,35; 11,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,49</t>
+          <t>6,76; 9,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 10,04</t>
+          <t>8,14; 10,07</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 10,63</t>
+          <t>5,27; 10,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 9,57</t>
+          <t>4,14; 9,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,1</t>
+          <t>5,32; 9,15</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 11,52</t>
+          <t>9,31; 11,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 9,64</t>
+          <t>7,58; 9,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 10,19</t>
+          <t>8,7; 10,18</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, fumaba otra persona diferente a sus padres en el ambiente donde se crió</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>121015</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124942</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>245957</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>99438; 139662</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>105603; 147409</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>217610; 276988</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>185805</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>137010</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>322815</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>158299; 214130</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>114901; 161935</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>292486; 361911</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34780</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29058</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63838</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24441; 49816</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18304; 41642</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>48179; 82899</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>341600</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>291010</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>632610</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>306248; 381773</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>257030; 325272</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>581419; 680283</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>